--- a/Projeto PIBITI/Resultados Analise/medias finais/A039_FORMOSO_DO_ARAGUAIA.xlsx
+++ b/Projeto PIBITI/Resultados Analise/medias finais/A039_FORMOSO_DO_ARAGUAIA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>0.975]</t>
   </si>
@@ -116,10 +116,10 @@
     <t>Least Squares</t>
   </si>
   <si>
-    <t>Wed, 01 Sep 2021</t>
-  </si>
-  <si>
-    <t>14:11:26</t>
+    <t>Wed, 29 Sep 2021</t>
+  </si>
+  <si>
+    <t>13:45:16</t>
   </si>
   <si>
     <t>365</t>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>13:45:17</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
